--- a/medicine/Enfance/Soudain_dans_la_forêt_profonde/Soudain_dans_la_forêt_profonde.xlsx
+++ b/medicine/Enfance/Soudain_dans_la_forêt_profonde/Soudain_dans_la_forêt_profonde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soudain_dans_la_for%C3%AAt_profonde</t>
+          <t>Soudain_dans_la_forêt_profonde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Soudain dans la forêt profonde (en hébreu : Pitʾwm bʿwmeq hayaʿar) est un conte philosophique de l'écrivain israélien Amos Oz, publié en 2005[1].
+Soudain dans la forêt profonde (en hébreu : Pitʾwm bʿwmeq hayaʿar) est un conte philosophique de l'écrivain israélien Amos Oz, publié en 2005.
 La traduction française paraît aux Éditions Gallimard en 2006.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soudain_dans_la_for%C3%AAt_profonde</t>
+          <t>Soudain_dans_la_forêt_profonde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un village au bout du monde, triste et gris, encerclé par des forêts épaisses et sombres. Un village maudit : toutes les bêtes, tous les oiseaux et même les poissons de la rivière l'ont déserté. Depuis, ses habitants se barricadent chez eux dès la nuit tombée, terrorisés par la créature mystérieuse nommée Nehi, et interdisent aux enfants de pénétrer dans la forêt. Mais surtout, ils gardent le silence. Personne ne veut se souvenir des animaux ni évoquer la vie d'avant. Seule Emmanuela, l'institutrice du village, tente d'enseigner aux élèves à quoi ressemblaient ces animaux disparus. 
 Deux enfants de sa classe, Matti et Maya, décident alors d'élucider le mystère et s'aventurent dans la forêt en dépit de l'interdit… 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soudain_dans_la_for%C3%AAt_profonde</t>
+          <t>Soudain_dans_la_forêt_profonde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce conte a reçu des critiques globalement positives[2],[3],[4], qualifié par André Clavel sur lexpress.fr de « conte merveilleux doublé d'un cours d'éducation civique »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce conte a reçu des critiques globalement positives qualifié par André Clavel sur lexpress.fr de « conte merveilleux doublé d'un cours d'éducation civique ».
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soudain_dans_la_for%C3%AAt_profonde</t>
+          <t>Soudain_dans_la_forêt_profonde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Éditions françaises ''ok''*</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Éditions imprimées
 Amos Oz (trad. de l'hébreu par Sylvie Cohen), Soudain dans la forêt profonde, Paris, éd. Gallimard, coll. « Du monde entier », 7 septembre 2006, 117 p., 21 cm (ISBN 2-07-077696-4, BNF 40210329)
